--- a/TestData/patient_data.xlsx
+++ b/TestData/patient_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>first_name</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Alpha2 Location New Schedular</t>
+  </si>
+  <si>
+    <t>01011960</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -154,6 +157,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +441,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,7 +449,7 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -463,7 +467,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -545,8 +549,8 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3">
-        <v>1011960</v>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
